--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados5.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados5.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,145 +380,150 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>AMT_CREDIT_YEARS</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>AMT_CREDIT</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>AMT_ANNUITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AMT_GOODS_PRICE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>NAME_TYPE_SUITE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>NAME_INCOME_TYPE</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>NAME_EDUCATION_TYPE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>NAME_FAMILY_STATUS</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>NAME_HOUSING_TYPE</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>REGION_POPULATION_RELATIVE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>DAYS_BIRTH</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>DAYS_EMPLOYED</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>DAYS_REGISTRATION</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>DAYS_ID_PUBLISH</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>OWN_CAR_AGE</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>FLAG_EMP_PHONE</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>FLAG_WORK_PHONE</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>FLAG_CONT_MOBILE</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>FLAG_PHONE</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>FLAG_EMAIL</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>OCCUPATION_TYPE</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>CNT_FAM_MEMBERS</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>REGION_RATING_CLIENT</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>WEEKDAY_APPR_PROCESS_START</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>HOUR_APPR_PROCESS_START</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>ORGANIZATION_TYPE</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>APARTMENTS_AVG</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>DAYS_LAST_PHONE_CHANGE</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>AMT_REQ_CREDIT_BUREAU</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>DEF_CNT_SOCIAL_CIRCLE</t>
         </is>
@@ -538,106 +543,109 @@
         <v>135000</v>
       </c>
       <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
         <v>531000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>32616</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>531000</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.028663</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>-13116</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>-1786</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-7237</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>-3168</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
       <c r="S2">
         <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Drivers</t>
         </is>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3</v>
       </c>
-      <c r="Z2">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AA2">
+        <v>2</v>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>10</v>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>0.0722</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
         <v>0</v>
       </c>
     </row>
@@ -655,106 +663,109 @@
         <v>112500</v>
       </c>
       <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
         <v>697500</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>35743.5</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>697500</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.030755</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-15150</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-392</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-70</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-6223</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>3</v>
       </c>
-      <c r="Z3">
-        <v>2</v>
-      </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>SATURDAY</t>
         </is>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>16</v>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>Services</t>
         </is>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0722</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <v>0</v>
       </c>
     </row>
@@ -772,101 +783,104 @@
         <v>180000</v>
       </c>
       <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4">
         <v>343683</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>20898</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>261000</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Children</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.018801</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>-10933</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>-2309</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-4757</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-1777</v>
       </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
       <c r="S4">
         <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="Y4">
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <v>3</v>
       </c>
-      <c r="Z4">
-        <v>2</v>
-      </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>12</v>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>0.0948</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>-150</v>
       </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
       <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
         <v>0</v>
       </c>
     </row>
@@ -884,101 +898,104 @@
         <v>76500</v>
       </c>
       <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5">
         <v>119925</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>13045.5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>112500</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.014464</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-12463</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-1631</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-2688</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-3524</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <v>4</v>
       </c>
-      <c r="Z5">
-        <v>2</v>
-      </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>3</v>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>0.008200000000000001</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-355</v>
       </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
       <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
         <v>0</v>
       </c>
     </row>
@@ -996,106 +1013,109 @@
         <v>202500</v>
       </c>
       <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
         <v>227520</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>18103.5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>180000</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Civil marriage</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.009656999999999999</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-14239</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-1387</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-1748</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-4819</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>4</v>
       </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>3</v>
       </c>
-      <c r="Z6">
-        <v>2</v>
-      </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>10</v>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>Transport: type 4</t>
         </is>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>0.133</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
         <v>0</v>
       </c>
     </row>
@@ -1113,65 +1133,65 @@
         <v>157500</v>
       </c>
       <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
         <v>1218375</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>51750</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1089000</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Family</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.031329</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-13879</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>-2930</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-3439</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-4395</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>4</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1179,40 +1199,43 @@
       <c r="W7">
         <v>1</v>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>High skill tech staff</t>
         </is>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>3</v>
       </c>
-      <c r="Z7">
-        <v>2</v>
-      </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>7</v>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>Industry: type 7</t>
         </is>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>0.0619</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>-1760</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>4</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>0</v>
       </c>
     </row>
@@ -1230,106 +1253,109 @@
         <v>202500</v>
       </c>
       <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
         <v>938304</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>50121</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>810000</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Incomplete higher</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>Municipal apartment</t>
         </is>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.04622</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-16290</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-4752</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-8870</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-3060</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>3</v>
       </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>Drivers</t>
         </is>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>4</v>
       </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>14</v>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>0.07729999999999999</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-363</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>3</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>0</v>
       </c>
     </row>
@@ -1347,106 +1373,109 @@
         <v>157500</v>
       </c>
       <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
         <v>531706.5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>28975.5</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>459000</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.010147</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-10867</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-1344</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-3517</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-3555</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>4</v>
       </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>3</v>
       </c>
-      <c r="Z9">
-        <v>2</v>
-      </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AA9">
+        <v>2</v>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>15</v>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>0.0227</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-1646</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>5</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>0</v>
       </c>
     </row>
@@ -1464,101 +1493,104 @@
         <v>135000</v>
       </c>
       <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
         <v>490536</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>25888.5</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>405000</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Civil marriage</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.025164</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-13802</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-4963</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-5328</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-3242</v>
       </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
       <c r="S10">
         <v>1</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>1</v>
       </c>
       <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>3</v>
       </c>
-      <c r="Z10">
-        <v>2</v>
-      </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>16</v>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>0.1021</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-1</v>
       </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
       <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
         <v>4</v>
       </c>
     </row>
@@ -1576,60 +1608,60 @@
         <v>168930</v>
       </c>
       <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
         <v>583569</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>16047</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>583569</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.030755</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-11508</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-374</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-397</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-3970</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>4</v>
       </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
       <c r="T11">
         <v>1</v>
       </c>
@@ -1640,37 +1672,40 @@
         <v>1</v>
       </c>
       <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>3</v>
       </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>12</v>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>Trade: type 3</t>
         </is>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>0.0495</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-755</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>4</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>0</v>
       </c>
     </row>
@@ -1688,106 +1723,109 @@
         <v>157500</v>
       </c>
       <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
         <v>363190.5</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>24399</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>328500</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.010006</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-10866</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-2235</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-1385</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-3338</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>3</v>
       </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>4</v>
       </c>
-      <c r="Z12">
-        <v>2</v>
-      </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>12</v>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>Industry: type 9</t>
         </is>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>0.1619</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-2143</v>
       </c>
-      <c r="AF12">
-        <v>2</v>
-      </c>
       <c r="AG12">
+        <v>2</v>
+      </c>
+      <c r="AH12">
         <v>0</v>
       </c>
     </row>
@@ -1805,106 +1843,109 @@
         <v>135000</v>
       </c>
       <c r="E13">
+        <v>45</v>
+      </c>
+      <c r="F13">
         <v>1281672</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>37606.5</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1003500</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.035792</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-12648</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-2715</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-777</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-2298</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>3</v>
       </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>Drivers</t>
         </is>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>3</v>
       </c>
-      <c r="Z13">
-        <v>2</v>
-      </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>SATURDAY</t>
         </is>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>10</v>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>0.0371</v>
       </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
       <c r="AF13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG13">
+        <v>2</v>
+      </c>
+      <c r="AH13">
         <v>0</v>
       </c>
     </row>
@@ -1922,106 +1963,109 @@
         <v>126000</v>
       </c>
       <c r="E14">
+        <v>45</v>
+      </c>
+      <c r="F14">
         <v>315000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>22401</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>315000</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>State servant</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.02461</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-11247</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-358</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-2798</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-3757</v>
       </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
       <c r="S14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>1</v>
       </c>
       <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="inlineStr">
         <is>
           <t>Core staff</t>
         </is>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3</v>
       </c>
-      <c r="Z14">
-        <v>2</v>
-      </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>10</v>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>School</t>
         </is>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>0.09279999999999999</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-2167</v>
       </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
       <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
         <v>0</v>
       </c>
     </row>
@@ -2039,101 +2083,104 @@
         <v>202500</v>
       </c>
       <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15">
         <v>830214</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>24403.5</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>693000</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.010643</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-10974</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-2520</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-10968</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-3298</v>
       </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
       <c r="S15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
-      <c r="Y15">
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <v>5</v>
       </c>
-      <c r="Z15">
-        <v>2</v>
-      </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>17</v>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>Transport: type 2</t>
         </is>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>0.1433</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-840</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>3</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0</v>
       </c>
     </row>
@@ -2151,60 +2198,60 @@
         <v>121500</v>
       </c>
       <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
         <v>675000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>21775.5</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>675000</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.026392</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-13467</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-1952</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-2499</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-4482</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>3</v>
       </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
       <c r="T16">
         <v>1</v>
       </c>
@@ -2215,42 +2262,45 @@
         <v>1</v>
       </c>
       <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>3</v>
       </c>
-      <c r="Z16">
-        <v>2</v>
-      </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>14</v>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>Housing</t>
         </is>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.0619</v>
       </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
       <c r="AF16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
         <v>0</v>
       </c>
     </row>
@@ -2268,106 +2318,109 @@
         <v>180000</v>
       </c>
       <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
         <v>733315.5</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>69754.5</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>679500</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.032561</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-14447</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-1103</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-2953</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-4295</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>3</v>
       </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="inlineStr">
         <is>
           <t>Accountants</t>
         </is>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>4</v>
       </c>
-      <c r="Z17">
-        <v>1</v>
-      </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>11</v>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.5866</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-2307</v>
       </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
       <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
         <v>0</v>
       </c>
     </row>
@@ -2385,101 +2438,104 @@
         <v>90000</v>
       </c>
       <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
         <v>298728</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>14499</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>202500</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Pensioner</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Civil marriage</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.008574999999999999</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-14801</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>365243</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-4243</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-4185</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>4</v>
       </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
       <c r="T18">
         <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
-      <c r="Y18">
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
         <v>3</v>
       </c>
-      <c r="Z18">
-        <v>2</v>
-      </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>11</v>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>XNA</t>
         </is>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.1732</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-70</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>6</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0</v>
       </c>
     </row>
@@ -2497,106 +2553,109 @@
         <v>157500</v>
       </c>
       <c r="E19">
+        <v>35</v>
+      </c>
+      <c r="F19">
         <v>592560</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>31153.5</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>450000</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Children</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>Municipal apartment</t>
         </is>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.003540999999999999</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-15725</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-595</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-5348</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-2749</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>3</v>
       </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="inlineStr">
         <is>
           <t>Cooking staff</t>
         </is>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>3</v>
       </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>10</v>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.0371</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-2446</v>
       </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
       <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
         <v>0</v>
       </c>
     </row>
@@ -2614,106 +2673,109 @@
         <v>180000</v>
       </c>
       <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
         <v>364896</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>19926</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>315000</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>State servant</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.009334</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-10039</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-822</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-281</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-2388</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>4</v>
       </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="inlineStr">
         <is>
           <t>Core staff</t>
         </is>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>3</v>
       </c>
-      <c r="Z20">
-        <v>2</v>
-      </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="inlineStr">
         <is>
           <t>SATURDAY</t>
         </is>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>13</v>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>Police</t>
         </is>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.1227</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-1723</v>
       </c>
-      <c r="AF20">
-        <v>2</v>
-      </c>
       <c r="AG20">
+        <v>2</v>
+      </c>
+      <c r="AH20">
         <v>0</v>
       </c>
     </row>
@@ -2731,59 +2793,59 @@
         <v>103500</v>
       </c>
       <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
         <v>490500</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>15952.5</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>490500</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>State servant</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.026392</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-12567</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-2811</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-6480</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-3177</v>
       </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
       <c r="S21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2792,40 +2854,43 @@
         <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
-      <c r="Y21">
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
         <v>3</v>
       </c>
-      <c r="Z21">
-        <v>2</v>
-      </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>18</v>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AD21" t="inlineStr">
         <is>
           <t>Business Entity Type 2</t>
         </is>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.3619</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-1210</v>
       </c>
-      <c r="AF21">
-        <v>1</v>
-      </c>
       <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
         <v>0</v>
       </c>
     </row>
@@ -2843,106 +2908,109 @@
         <v>135000</v>
       </c>
       <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
         <v>675000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>26284.5</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>675000</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.028663</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-16619</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>-3287</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-1057</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-168</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>4</v>
       </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>4</v>
       </c>
-      <c r="Z22">
-        <v>2</v>
-      </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AB22" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>8</v>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>Business Entity Type 2</t>
         </is>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.1155</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>-644</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>6</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>2</v>
       </c>
     </row>
@@ -2960,106 +3028,109 @@
         <v>135000</v>
       </c>
       <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
         <v>1078200</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>34911</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>900000</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Spouse, partner</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>Municipal apartment</t>
         </is>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.020246</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-18448</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-2309</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-11353</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-2007</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>3</v>
       </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="inlineStr">
         <is>
           <t>Medicine staff</t>
         </is>
-      </c>
-      <c r="Y23">
-        <v>3</v>
       </c>
       <c r="Z23">
         <v>3</v>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AA23">
+        <v>3</v>
+      </c>
+      <c r="AB23" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>9</v>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.0897</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>-440</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>3</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0</v>
       </c>
     </row>
@@ -3077,101 +3148,104 @@
         <v>94500</v>
       </c>
       <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24">
         <v>1546020</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>45333</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1350000</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Pensioner</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.020713</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-19821</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>365243</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>-660</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-3286</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>4</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
-      <c r="Y24">
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
         <v>4</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>3</v>
       </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>7</v>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>XNA</t>
         </is>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.09279999999999999</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>-174</v>
       </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
       <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
         <v>0</v>
       </c>
     </row>
@@ -3189,101 +3263,104 @@
         <v>135000</v>
       </c>
       <c r="E25">
+        <v>35</v>
+      </c>
+      <c r="F25">
         <v>900000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>46084.5</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>900000</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.026392</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-10490</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-597</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>-32</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-3053</v>
       </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
       <c r="S25">
         <v>1</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
         <v>3</v>
       </c>
-      <c r="Z25">
-        <v>2</v>
-      </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AA25">
+        <v>2</v>
+      </c>
+      <c r="AB25" t="inlineStr">
         <is>
           <t>SATURDAY</t>
         </is>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>12</v>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AD25" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.134</v>
       </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
       <c r="AF25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
         <v>3</v>
       </c>
     </row>
@@ -3301,106 +3378,109 @@
         <v>135000</v>
       </c>
       <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
         <v>270000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>14265</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>270000</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Family</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.026392</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>-11118</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-368</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>-3961</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-3294</v>
       </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
       <c r="S26">
         <v>1</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="inlineStr">
         <is>
           <t>Drivers</t>
         </is>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>3</v>
       </c>
-      <c r="Z26">
-        <v>2</v>
-      </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AA26">
+        <v>2</v>
+      </c>
+      <c r="AB26" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>11</v>
       </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AD26" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.1309</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>-219</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>6</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0</v>
       </c>
     </row>
@@ -3418,101 +3498,104 @@
         <v>121500</v>
       </c>
       <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27">
         <v>254700</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>24939</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>225000</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.020713</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-14636</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-182</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-8551</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-5125</v>
       </c>
-      <c r="R27">
-        <v>2</v>
-      </c>
       <c r="S27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
-      <c r="Y27">
-        <v>3</v>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Z27">
         <v>3</v>
       </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AA27">
+        <v>3</v>
+      </c>
+      <c r="AB27" t="inlineStr">
         <is>
           <t>SATURDAY</t>
         </is>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>7</v>
       </c>
-      <c r="AC27" t="inlineStr">
+      <c r="AD27" t="inlineStr">
         <is>
           <t>Industry: type 1</t>
         </is>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.2515</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>-1</v>
       </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
       <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27">
         <v>0</v>
       </c>
     </row>
@@ -3530,106 +3613,109 @@
         <v>157500</v>
       </c>
       <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
         <v>746280</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>58963.5</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>675000</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.025164</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-14790</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-1249</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-1669</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-2306</v>
       </c>
-      <c r="R28">
-        <v>2</v>
-      </c>
       <c r="S28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="inlineStr">
         <is>
           <t>Sales staff</t>
         </is>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>3</v>
       </c>
-      <c r="Z28">
-        <v>2</v>
-      </c>
-      <c r="AA28" t="inlineStr">
+      <c r="AA28">
+        <v>2</v>
+      </c>
+      <c r="AB28" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>8</v>
       </c>
-      <c r="AC28" t="inlineStr">
+      <c r="AD28" t="inlineStr">
         <is>
           <t>Business Entity Type 2</t>
         </is>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.07630000000000001</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-308</v>
       </c>
-      <c r="AF28">
-        <v>2</v>
-      </c>
       <c r="AG28">
+        <v>2</v>
+      </c>
+      <c r="AH28">
         <v>0</v>
       </c>
     </row>
@@ -3647,101 +3733,104 @@
         <v>112500</v>
       </c>
       <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
         <v>373311</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>13963.5</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>283500</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.016612</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-12918</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-3010</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-7035</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-4683</v>
       </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
       <c r="S29">
         <v>1</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>4</v>
       </c>
-      <c r="Z29">
-        <v>2</v>
-      </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AA29">
+        <v>2</v>
+      </c>
+      <c r="AB29" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>11</v>
       </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AD29" t="inlineStr">
         <is>
           <t>Government</t>
         </is>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.1454</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-2</v>
       </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
       <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
         <v>0</v>
       </c>
     </row>
@@ -3759,106 +3848,109 @@
         <v>180000</v>
       </c>
       <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
         <v>429763.5</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>33952.5</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>351000</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.02461</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-16195</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-1803</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-8706</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-4382</v>
       </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
       <c r="S30">
         <v>1</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="X30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>3</v>
       </c>
-      <c r="Z30">
-        <v>2</v>
-      </c>
-      <c r="AA30" t="inlineStr">
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>13</v>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AD30" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.0825</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-1510</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>9</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0</v>
       </c>
     </row>
@@ -3876,106 +3968,109 @@
         <v>90000</v>
       </c>
       <c r="E31">
+        <v>40</v>
+      </c>
+      <c r="F31">
         <v>630000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>23274</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>630000</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.015221</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-13981</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-1018</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-1196</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-4559</v>
       </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
       <c r="S31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="inlineStr">
         <is>
           <t>Sales staff</t>
         </is>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>3</v>
       </c>
-      <c r="Z31">
-        <v>2</v>
-      </c>
-      <c r="AA31" t="inlineStr">
+      <c r="AA31">
+        <v>2</v>
+      </c>
+      <c r="AB31" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>10</v>
       </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AD31" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.1649</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-370</v>
       </c>
-      <c r="AF31">
-        <v>2</v>
-      </c>
       <c r="AG31">
+        <v>2</v>
+      </c>
+      <c r="AH31">
         <v>1</v>
       </c>
     </row>
@@ -3993,60 +4088,60 @@
         <v>149323.5</v>
       </c>
       <c r="E32">
+        <v>15</v>
+      </c>
+      <c r="F32">
         <v>152820</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>7911</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>135000</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.006233</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-14261</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-725</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-4282</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-5278</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>4</v>
       </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
       <c r="T32">
         <v>1</v>
       </c>
@@ -4054,45 +4149,48 @@
         <v>1</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="inlineStr">
         <is>
           <t>Sales staff</t>
         </is>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>3</v>
       </c>
-      <c r="Z32">
-        <v>2</v>
-      </c>
-      <c r="AA32" t="inlineStr">
+      <c r="AA32">
+        <v>2</v>
+      </c>
+      <c r="AB32" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>12</v>
       </c>
-      <c r="AC32" t="inlineStr">
+      <c r="AD32" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>0.3371</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-971</v>
       </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
       <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
         <v>0</v>
       </c>
     </row>
@@ -4110,57 +4208,57 @@
         <v>202500</v>
       </c>
       <c r="E33">
+        <v>40</v>
+      </c>
+      <c r="F33">
         <v>239850</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>25447.5</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>225000</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.026392</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-13541</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-738</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-4420</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-4041</v>
       </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
       <c r="S33">
         <v>1</v>
       </c>
@@ -4176,40 +4274,43 @@
       <c r="W33">
         <v>1</v>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="inlineStr">
         <is>
           <t>Core staff</t>
         </is>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>4</v>
       </c>
-      <c r="Z33">
-        <v>2</v>
-      </c>
-      <c r="AA33" t="inlineStr">
+      <c r="AA33">
+        <v>2</v>
+      </c>
+      <c r="AB33" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>11</v>
       </c>
-      <c r="AC33" t="inlineStr">
+      <c r="AD33" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.2969</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-1080</v>
       </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
       <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
         <v>0</v>
       </c>
     </row>
@@ -4227,106 +4328,109 @@
         <v>180000</v>
       </c>
       <c r="E34">
+        <v>25</v>
+      </c>
+      <c r="F34">
         <v>545040</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>43191</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>450000</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.019689</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>-19038</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>-5275</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-748</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>-1796</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>4</v>
       </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="inlineStr">
         <is>
           <t>Sales staff</t>
         </is>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>3</v>
       </c>
-      <c r="Z34">
-        <v>2</v>
-      </c>
-      <c r="AA34" t="inlineStr">
+      <c r="AA34">
+        <v>2</v>
+      </c>
+      <c r="AB34" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>9</v>
       </c>
-      <c r="AC34" t="inlineStr">
+      <c r="AD34" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.0804</v>
       </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
       <c r="AF34">
         <v>0</v>
       </c>
       <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
         <v>0</v>
       </c>
     </row>
@@ -4344,60 +4448,60 @@
         <v>135000</v>
       </c>
       <c r="E35">
+        <v>25</v>
+      </c>
+      <c r="F35">
         <v>270000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>15628.5</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>270000</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>With parents</t>
         </is>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.035792</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>-14007</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>-1176</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>-7106</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>-4938</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>4</v>
       </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
       <c r="T35">
         <v>1</v>
       </c>
@@ -4408,42 +4512,45 @@
         <v>1</v>
       </c>
       <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>4</v>
       </c>
-      <c r="Z35">
-        <v>2</v>
-      </c>
-      <c r="AA35" t="inlineStr">
+      <c r="AA35">
+        <v>2</v>
+      </c>
+      <c r="AB35" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>14</v>
       </c>
-      <c r="AC35" t="inlineStr">
+      <c r="AD35" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.1</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>-558</v>
       </c>
-      <c r="AF35">
-        <v>1</v>
-      </c>
       <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35">
         <v>0</v>
       </c>
     </row>
@@ -4461,101 +4568,104 @@
         <v>180000</v>
       </c>
       <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
         <v>382500</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>19125</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>382500</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>0.011703</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>-14539</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>-5662</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>-8666</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>-187</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>4</v>
       </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
-      <c r="Y36">
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
         <v>3</v>
       </c>
-      <c r="Z36">
-        <v>2</v>
-      </c>
-      <c r="AA36" t="inlineStr">
+      <c r="AA36">
+        <v>2</v>
+      </c>
+      <c r="AB36" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>18</v>
       </c>
-      <c r="AC36" t="inlineStr">
+      <c r="AD36" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>0.333</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>-3282</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>3</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>0</v>
       </c>
     </row>
@@ -4573,106 +4683,109 @@
         <v>117000</v>
       </c>
       <c r="E37">
+        <v>20</v>
+      </c>
+      <c r="F37">
         <v>409500</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>26793</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>409500</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.026392</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>-10572</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>-671</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>-4644</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>-380</v>
       </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
       <c r="S37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="inlineStr">
         <is>
           <t>Core staff</t>
         </is>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>3</v>
       </c>
-      <c r="Z37">
-        <v>2</v>
-      </c>
-      <c r="AA37" t="inlineStr">
+      <c r="AA37">
+        <v>2</v>
+      </c>
+      <c r="AB37" t="inlineStr">
         <is>
           <t>SUNDAY</t>
         </is>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>14</v>
       </c>
-      <c r="AC37" t="inlineStr">
+      <c r="AD37" t="inlineStr">
         <is>
           <t>Bank</t>
         </is>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>0.0649</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>-195</v>
       </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
       <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
         <v>3</v>
       </c>
     </row>
@@ -4690,59 +4803,59 @@
         <v>157500</v>
       </c>
       <c r="E38">
+        <v>35</v>
+      </c>
+      <c r="F38">
         <v>135000</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>14323.5</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>135000</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>Spouse, partner</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>With parents</t>
         </is>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.019101</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>-15718</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>-4163</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>-7724</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>-4655</v>
       </c>
-      <c r="R38">
-        <v>2</v>
-      </c>
       <c r="S38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -4754,42 +4867,45 @@
         <v>1</v>
       </c>
       <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="inlineStr">
         <is>
           <t>Drivers</t>
         </is>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>3</v>
       </c>
-      <c r="Z38">
-        <v>2</v>
-      </c>
-      <c r="AA38" t="inlineStr">
+      <c r="AA38">
+        <v>2</v>
+      </c>
+      <c r="AB38" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>21</v>
       </c>
-      <c r="AC38" t="inlineStr">
+      <c r="AD38" t="inlineStr">
         <is>
           <t>Services</t>
         </is>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>0.1495</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>-387</v>
       </c>
-      <c r="AF38">
-        <v>2</v>
-      </c>
       <c r="AG38">
+        <v>2</v>
+      </c>
+      <c r="AH38">
         <v>0</v>
       </c>
     </row>
@@ -4807,101 +4923,104 @@
         <v>180000</v>
       </c>
       <c r="E39">
+        <v>15</v>
+      </c>
+      <c r="F39">
         <v>490495.5</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>27517.5</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>454500</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>Family</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.031329</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>-14597</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>-1209</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>-3216</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>-1768</v>
       </c>
-      <c r="R39">
-        <v>2</v>
-      </c>
       <c r="S39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
-      <c r="Y39">
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
         <v>3</v>
       </c>
-      <c r="Z39">
-        <v>2</v>
-      </c>
-      <c r="AA39" t="inlineStr">
+      <c r="AA39">
+        <v>2</v>
+      </c>
+      <c r="AB39" t="inlineStr">
         <is>
           <t>SATURDAY</t>
         </is>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>15</v>
       </c>
-      <c r="AC39" t="inlineStr">
+      <c r="AD39" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>0.1464</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>-1701</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>5</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>6</v>
       </c>
     </row>
@@ -4919,65 +5038,65 @@
         <v>135000</v>
       </c>
       <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
         <v>900000</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>38133</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>900000</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>0.020246</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>-15964</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>-1299</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>-5377</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>-5894</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>3</v>
       </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
       <c r="T40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
         <v>1</v>
@@ -4985,40 +5104,43 @@
       <c r="W40">
         <v>1</v>
       </c>
-      <c r="X40" t="inlineStr">
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="inlineStr">
         <is>
           <t>Core staff</t>
         </is>
-      </c>
-      <c r="Y40">
-        <v>3</v>
       </c>
       <c r="Z40">
         <v>3</v>
       </c>
-      <c r="AA40" t="inlineStr">
+      <c r="AA40">
+        <v>3</v>
+      </c>
+      <c r="AB40" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>14</v>
       </c>
-      <c r="AC40" t="inlineStr">
+      <c r="AD40" t="inlineStr">
         <is>
           <t>Industry: type 9</t>
         </is>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>0.0619</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>-698</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>7</v>
       </c>
-      <c r="AG40">
+      <c r="AH40">
         <v>0</v>
       </c>
     </row>
@@ -5036,106 +5158,109 @@
         <v>135000</v>
       </c>
       <c r="E41">
+        <v>45</v>
+      </c>
+      <c r="F41">
         <v>135000</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>6750</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>135000</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>Civil marriage</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>0.015221</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>-14517</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>-834</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>-3783</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>-3931</v>
       </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
       <c r="S41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
-      <c r="X41" t="inlineStr">
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="inlineStr">
         <is>
           <t>Security staff</t>
         </is>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>3</v>
       </c>
-      <c r="Z41">
-        <v>2</v>
-      </c>
-      <c r="AA41" t="inlineStr">
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>15</v>
       </c>
-      <c r="AC41" t="inlineStr">
+      <c r="AD41" t="inlineStr">
         <is>
           <t>Agriculture</t>
         </is>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>0.1227</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>-2258</v>
       </c>
-      <c r="AF41">
+      <c r="AG41">
         <v>5</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>0</v>
       </c>
     </row>
@@ -5153,106 +5278,109 @@
         <v>135000</v>
       </c>
       <c r="E42">
+        <v>35</v>
+      </c>
+      <c r="F42">
         <v>270000</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>13500</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>270000</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>0.026392</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>-14818</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>-458</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>-1289</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>-4203</v>
       </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
       <c r="S42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42">
         <v>1</v>
       </c>
       <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>3</v>
       </c>
-      <c r="Z42">
-        <v>2</v>
-      </c>
-      <c r="AA42" t="inlineStr">
+      <c r="AA42">
+        <v>2</v>
+      </c>
+      <c r="AB42" t="inlineStr">
         <is>
           <t>SATURDAY</t>
         </is>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>16</v>
       </c>
-      <c r="AC42" t="inlineStr">
+      <c r="AD42" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>0.09279999999999999</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>-152</v>
       </c>
-      <c r="AF42">
-        <v>0</v>
-      </c>
       <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
         <v>0</v>
       </c>
     </row>
@@ -5270,106 +5398,109 @@
         <v>135000</v>
       </c>
       <c r="E43">
+        <v>35</v>
+      </c>
+      <c r="F43">
         <v>155938.5</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>12195</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>126000</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>0.030755</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>-16266</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>-1746</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>-8865</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>-4136</v>
       </c>
-      <c r="R43">
-        <v>1</v>
-      </c>
       <c r="S43">
         <v>1</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
-      <c r="X43" t="inlineStr">
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>3</v>
       </c>
-      <c r="Z43">
-        <v>2</v>
-      </c>
-      <c r="AA43" t="inlineStr">
+      <c r="AA43">
+        <v>2</v>
+      </c>
+      <c r="AB43" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>17</v>
       </c>
-      <c r="AC43" t="inlineStr">
+      <c r="AD43" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>0.134</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>-2708</v>
       </c>
-      <c r="AF43">
+      <c r="AG43">
         <v>4</v>
       </c>
-      <c r="AG43">
+      <c r="AH43">
         <v>0</v>
       </c>
     </row>
@@ -5387,106 +5518,109 @@
         <v>180000</v>
       </c>
       <c r="E44">
+        <v>45</v>
+      </c>
+      <c r="F44">
         <v>450000</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>28890</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>450000</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>Civil marriage</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>0.028663</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>-20050</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>-378</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>-1293</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>-3571</v>
       </c>
-      <c r="R44">
-        <v>1</v>
-      </c>
       <c r="S44">
         <v>1</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
-      <c r="X44" t="inlineStr">
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="inlineStr">
         <is>
           <t>Drivers</t>
         </is>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>5</v>
       </c>
-      <c r="Z44">
-        <v>2</v>
-      </c>
-      <c r="AA44" t="inlineStr">
+      <c r="AA44">
+        <v>2</v>
+      </c>
+      <c r="AB44" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>16</v>
       </c>
-      <c r="AC44" t="inlineStr">
+      <c r="AD44" t="inlineStr">
         <is>
           <t>Government</t>
         </is>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>0.0165</v>
       </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>-98</v>
       </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
       <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44">
         <v>0</v>
       </c>
     </row>
@@ -5504,60 +5638,60 @@
         <v>135000</v>
       </c>
       <c r="E45">
+        <v>20</v>
+      </c>
+      <c r="F45">
         <v>1006920</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>51412.5</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>900000</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>0.011703</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>-13840</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>-6784</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>-1486</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>-1387</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>4</v>
       </c>
-      <c r="S45">
-        <v>1</v>
-      </c>
       <c r="T45">
         <v>1</v>
       </c>
@@ -5565,45 +5699,48 @@
         <v>1</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
-      <c r="X45" t="inlineStr">
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="inlineStr">
         <is>
           <t>High skill tech staff</t>
         </is>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>4</v>
       </c>
-      <c r="Z45">
-        <v>2</v>
-      </c>
-      <c r="AA45" t="inlineStr">
+      <c r="AA45">
+        <v>2</v>
+      </c>
+      <c r="AB45" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>9</v>
       </c>
-      <c r="AC45" t="inlineStr">
+      <c r="AD45" t="inlineStr">
         <is>
           <t>Industry: type 7</t>
         </is>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>0.1031</v>
       </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>-1221</v>
       </c>
-      <c r="AF45">
+      <c r="AG45">
         <v>3</v>
       </c>
-      <c r="AG45">
+      <c r="AH45">
         <v>0</v>
       </c>
     </row>
@@ -5621,101 +5758,104 @@
         <v>180000</v>
       </c>
       <c r="E46">
+        <v>30</v>
+      </c>
+      <c r="F46">
         <v>526500</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>25456.5</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>526500</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>0.028663</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>-15707</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>-6313</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>-2290</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>-4077</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>4</v>
       </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46">
-        <v>1</v>
-      </c>
-      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Z46">
         <v>4</v>
       </c>
-      <c r="Z46">
-        <v>2</v>
-      </c>
-      <c r="AA46" t="inlineStr">
+      <c r="AA46">
+        <v>2</v>
+      </c>
+      <c r="AB46" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>15</v>
       </c>
-      <c r="AC46" t="inlineStr">
+      <c r="AD46" t="inlineStr">
         <is>
           <t>Security Ministries</t>
         </is>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>0.1474</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>-1774</v>
       </c>
-      <c r="AF46">
+      <c r="AG46">
         <v>8</v>
       </c>
-      <c r="AG46">
+      <c r="AH46">
         <v>0</v>
       </c>
     </row>
@@ -5733,106 +5873,109 @@
         <v>112500</v>
       </c>
       <c r="E47">
+        <v>15</v>
+      </c>
+      <c r="F47">
         <v>251091</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>24961.5</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>238500</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>Municipal apartment</t>
         </is>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>0.003813</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>-12849</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>-111</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>-6742</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>-3724</v>
       </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
       <c r="S47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
-      <c r="X47" t="inlineStr">
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="inlineStr">
         <is>
           <t>High skill tech staff</t>
         </is>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>3</v>
       </c>
-      <c r="Z47">
-        <v>2</v>
-      </c>
-      <c r="AA47" t="inlineStr">
+      <c r="AA47">
+        <v>2</v>
+      </c>
+      <c r="AB47" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>7</v>
       </c>
-      <c r="AC47" t="inlineStr">
+      <c r="AD47" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>0.0144</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>-811</v>
       </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
       <c r="AG47">
+        <v>1</v>
+      </c>
+      <c r="AH47">
         <v>0</v>
       </c>
     </row>
@@ -5850,106 +5993,109 @@
         <v>180000</v>
       </c>
       <c r="E48">
+        <v>25</v>
+      </c>
+      <c r="F48">
         <v>118602</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>9441</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>99000</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>0.009175000000000001</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>-13803</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>-1278</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>-5673</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>-2444</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>4</v>
       </c>
-      <c r="S48">
-        <v>1</v>
-      </c>
       <c r="T48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
-      <c r="X48" t="inlineStr">
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="inlineStr">
         <is>
           <t>Sales staff</t>
         </is>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>4</v>
       </c>
-      <c r="Z48">
-        <v>2</v>
-      </c>
-      <c r="AA48" t="inlineStr">
+      <c r="AA48">
+        <v>2</v>
+      </c>
+      <c r="AB48" t="inlineStr">
         <is>
           <t>SATURDAY</t>
         </is>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>13</v>
       </c>
-      <c r="AC48" t="inlineStr">
+      <c r="AD48" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>0.008200000000000001</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>-618</v>
       </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
       <c r="AG48">
+        <v>1</v>
+      </c>
+      <c r="AH48">
         <v>0</v>
       </c>
     </row>
@@ -5967,106 +6113,109 @@
         <v>180000</v>
       </c>
       <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
         <v>630000</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>38542.5</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>630000</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>Family</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>0.025164</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>-17371</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>-1846</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>-2136</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>-903</v>
       </c>
-      <c r="R49">
-        <v>2</v>
-      </c>
       <c r="S49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
-      <c r="X49" t="inlineStr">
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="inlineStr">
         <is>
           <t>Sales staff</t>
         </is>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>3</v>
       </c>
-      <c r="Z49">
-        <v>2</v>
-      </c>
-      <c r="AA49" t="inlineStr">
+      <c r="AA49">
+        <v>2</v>
+      </c>
+      <c r="AB49" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>11</v>
       </c>
-      <c r="AC49" t="inlineStr">
+      <c r="AD49" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>0.0856</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <v>-726</v>
       </c>
-      <c r="AF49">
+      <c r="AG49">
         <v>7</v>
       </c>
-      <c r="AG49">
+      <c r="AH49">
         <v>1</v>
       </c>
     </row>
@@ -6084,106 +6233,109 @@
         <v>126000</v>
       </c>
       <c r="E50">
+        <v>35</v>
+      </c>
+      <c r="F50">
         <v>432661.5</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>22653</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>373500</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>Family</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>With parents</t>
         </is>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>0.031329</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>-12054</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>-539</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>-6013</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>-3931</v>
       </c>
-      <c r="R50">
-        <v>1</v>
-      </c>
       <c r="S50">
         <v>1</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
-      <c r="X50" t="inlineStr">
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="inlineStr">
         <is>
           <t>Core staff</t>
         </is>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>4</v>
       </c>
-      <c r="Z50">
-        <v>2</v>
-      </c>
-      <c r="AA50" t="inlineStr">
+      <c r="AA50">
+        <v>2</v>
+      </c>
+      <c r="AB50" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>9</v>
       </c>
-      <c r="AC50" t="inlineStr">
+      <c r="AD50" t="inlineStr">
         <is>
           <t>Kindergarten</t>
         </is>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>0.1979</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>-2432</v>
       </c>
-      <c r="AF50">
-        <v>2</v>
-      </c>
       <c r="AG50">
+        <v>2</v>
+      </c>
+      <c r="AH50">
         <v>2</v>
       </c>
     </row>
@@ -6201,106 +6353,109 @@
         <v>135000</v>
       </c>
       <c r="E51">
+        <v>35</v>
+      </c>
+      <c r="F51">
         <v>545040</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>17842.5</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>450000</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>With parents</t>
         </is>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>0.02461</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>-8459</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>-1189</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>-8422</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>-1064</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>3</v>
       </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
       <c r="T51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51">
         <v>1</v>
       </c>
       <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="inlineStr">
         <is>
           <t>Drivers</t>
         </is>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>3</v>
       </c>
-      <c r="Z51">
-        <v>2</v>
-      </c>
-      <c r="AA51" t="inlineStr">
+      <c r="AA51">
+        <v>2</v>
+      </c>
+      <c r="AB51" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>19</v>
       </c>
-      <c r="AC51" t="inlineStr">
+      <c r="AD51" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>0.2227</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>-451</v>
       </c>
-      <c r="AF51">
-        <v>2</v>
-      </c>
       <c r="AG51">
+        <v>2</v>
+      </c>
+      <c r="AH51">
         <v>0</v>
       </c>
     </row>

--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados5.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados5.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,31 +536,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>100471</v>
+        <v>100198</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>112500</v>
+        <v>135000</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>697500</v>
+        <v>531000</v>
       </c>
       <c r="H2">
-        <v>35743.5</v>
+        <v>32616</v>
       </c>
       <c r="I2">
-        <v>697500</v>
+        <v>531000</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="O2">
-        <v>0.030755</v>
+        <v>0.028663</v>
       </c>
       <c r="P2">
-        <v>-15150</v>
+        <v>-13116</v>
       </c>
       <c r="Q2">
-        <v>-392</v>
+        <v>-1786</v>
       </c>
       <c r="R2">
-        <v>-70</v>
+        <v>-7237</v>
       </c>
       <c r="S2">
-        <v>-6223</v>
+        <v>-3168</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Laborers</t>
+          <t>Drivers</t>
         </is>
       </c>
       <c r="AA2">
@@ -633,15 +633,15 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>SATURDAY</t>
+          <t>MONDAY</t>
         </is>
       </c>
       <c r="AD2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="AF2">
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>100734</v>
+        <v>100471</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -671,23 +671,23 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>157500</v>
+        <v>112500</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>1218375</v>
+        <v>697500</v>
       </c>
       <c r="H3">
-        <v>51750</v>
+        <v>35743.5</v>
       </c>
       <c r="I3">
-        <v>1089000</v>
+        <v>697500</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Unaccompanied</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -711,22 +711,22 @@
         </is>
       </c>
       <c r="O3">
-        <v>0.031329</v>
+        <v>0.030755</v>
       </c>
       <c r="P3">
-        <v>-13879</v>
+        <v>-15150</v>
       </c>
       <c r="Q3">
-        <v>-2930</v>
+        <v>-392</v>
       </c>
       <c r="R3">
-        <v>-3439</v>
+        <v>-70</v>
       </c>
       <c r="S3">
-        <v>-4395</v>
+        <v>-6223</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -738,14 +738,14 @@
         <v>1</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>High skill tech staff</t>
+          <t>Laborers</t>
         </is>
       </c>
       <c r="AA3">
@@ -756,25 +756,25 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>THURSDAY</t>
+          <t>SATURDAY</t>
         </is>
       </c>
       <c r="AD3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Industry: type 7</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="AF3">
-        <v>0.0619</v>
+        <v>0.0722</v>
       </c>
       <c r="AG3">
-        <v>-1760</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>101148</v>
+        <v>100734</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -794,23 +794,23 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>135000</v>
+        <v>157500</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4">
-        <v>490536</v>
+        <v>1218375</v>
       </c>
       <c r="H4">
-        <v>25888.5</v>
+        <v>51750</v>
       </c>
       <c r="I4">
-        <v>405000</v>
+        <v>1089000</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Unaccompanied</t>
+          <t>Family</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -820,12 +820,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t>Secondary / secondary special</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Civil marriage</t>
+          <t>Married</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -834,22 +834,22 @@
         </is>
       </c>
       <c r="O4">
-        <v>0.025164</v>
+        <v>0.031329</v>
       </c>
       <c r="P4">
-        <v>-13802</v>
+        <v>-13879</v>
       </c>
       <c r="Q4">
-        <v>-4963</v>
+        <v>-2930</v>
       </c>
       <c r="R4">
-        <v>-5328</v>
+        <v>-3439</v>
       </c>
       <c r="S4">
-        <v>-3242</v>
+        <v>-4395</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -864,7 +864,12 @@
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>High skill tech staff</t>
+        </is>
       </c>
       <c r="AA4">
         <v>3</v>
@@ -874,33 +879,33 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>WEDNESDAY</t>
+          <t>THURSDAY</t>
         </is>
       </c>
       <c r="AD4">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Industry: type 7</t>
         </is>
       </c>
       <c r="AF4">
-        <v>0.1021</v>
+        <v>0.0619</v>
       </c>
       <c r="AG4">
-        <v>-1</v>
+        <v>-1760</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>101450</v>
+        <v>100759</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -909,22 +914,22 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>135000</v>
+        <v>202500</v>
       </c>
       <c r="F5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>1281672</v>
+        <v>938304</v>
       </c>
       <c r="H5">
-        <v>37606.5</v>
+        <v>50121</v>
       </c>
       <c r="I5">
-        <v>1003500</v>
+        <v>810000</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -933,12 +938,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Commercial associate</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Secondary / secondary special</t>
+          <t>Incomplete higher</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -948,23 +953,23 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>House / apartment</t>
+          <t>Municipal apartment</t>
         </is>
       </c>
       <c r="O5">
-        <v>0.035792</v>
+        <v>0.04622</v>
       </c>
       <c r="P5">
-        <v>-12648</v>
+        <v>-16290</v>
       </c>
       <c r="Q5">
-        <v>-2715</v>
+        <v>-4752</v>
       </c>
       <c r="R5">
-        <v>-777</v>
+        <v>-8870</v>
       </c>
       <c r="S5">
-        <v>-2298</v>
+        <v>-3060</v>
       </c>
       <c r="T5">
         <v>3</v>
@@ -990,32 +995,32 @@
         </is>
       </c>
       <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD5">
+        <v>14</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Business Entity Type 3</t>
+        </is>
+      </c>
+      <c r="AF5">
+        <v>0.07729999999999999</v>
+      </c>
+      <c r="AG5">
+        <v>-363</v>
+      </c>
+      <c r="AH5">
         <v>3</v>
-      </c>
-      <c r="AB5">
-        <v>2</v>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>SATURDAY</t>
-        </is>
-      </c>
-      <c r="AD5">
-        <v>10</v>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>Business Entity Type 3</t>
-        </is>
-      </c>
-      <c r="AF5">
-        <v>0.0371</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>2</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1023,7 +1028,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>101993</v>
+        <v>101084</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1035,19 +1040,19 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>121500</v>
+        <v>157500</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6">
-        <v>675000</v>
+        <v>531706.5</v>
       </c>
       <c r="H6">
-        <v>21775.5</v>
+        <v>28975.5</v>
       </c>
       <c r="I6">
-        <v>675000</v>
+        <v>459000</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -1075,37 +1080,37 @@
         </is>
       </c>
       <c r="O6">
-        <v>0.026392</v>
+        <v>0.010147</v>
       </c>
       <c r="P6">
-        <v>-13467</v>
+        <v>-10867</v>
       </c>
       <c r="Q6">
-        <v>-1952</v>
+        <v>-1344</v>
       </c>
       <c r="R6">
-        <v>-2499</v>
+        <v>-3517</v>
       </c>
       <c r="S6">
-        <v>-4482</v>
+        <v>-3555</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U6">
         <v>1</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
@@ -1120,25 +1125,25 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>THURSDAY</t>
+          <t>MONDAY</t>
         </is>
       </c>
       <c r="AD6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>Housing</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="AF6">
-        <v>0.0619</v>
+        <v>0.0227</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>-1646</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1146,7 +1151,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>101994</v>
+        <v>101148</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1155,121 +1160,116 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>135000</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>490536</v>
+      </c>
+      <c r="H7">
+        <v>25888.5</v>
+      </c>
+      <c r="I7">
+        <v>405000</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Civil marriage</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O7">
+        <v>0.025164</v>
+      </c>
+      <c r="P7">
+        <v>-13802</v>
+      </c>
+      <c r="Q7">
+        <v>-4963</v>
+      </c>
+      <c r="R7">
+        <v>-5328</v>
+      </c>
+      <c r="S7">
+        <v>-3242</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>180000</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>733315.5</v>
-      </c>
-      <c r="H7">
-        <v>69754.5</v>
-      </c>
-      <c r="I7">
-        <v>679500</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Unaccompanied</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Commercial associate</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Higher education</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Married</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>House / apartment</t>
-        </is>
-      </c>
-      <c r="O7">
-        <v>0.032561</v>
-      </c>
-      <c r="P7">
-        <v>-14447</v>
-      </c>
-      <c r="Q7">
-        <v>-1103</v>
-      </c>
-      <c r="R7">
-        <v>-2953</v>
-      </c>
-      <c r="S7">
-        <v>-4295</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>Accountants</t>
-        </is>
-      </c>
-      <c r="AA7">
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD7">
+        <v>16</v>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="AF7">
+        <v>0.1021</v>
+      </c>
+      <c r="AG7">
+        <v>-1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
         <v>4</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>MONDAY</t>
-        </is>
-      </c>
-      <c r="AD7">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>Business Entity Type 3</t>
-        </is>
-      </c>
-      <c r="AF7">
-        <v>0.5866</v>
-      </c>
-      <c r="AG7">
-        <v>-2307</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>103412</v>
+        <v>101450</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1278,22 +1278,22 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>135000</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G8">
-        <v>675000</v>
+        <v>1281672</v>
       </c>
       <c r="H8">
-        <v>26284.5</v>
+        <v>37606.5</v>
       </c>
       <c r="I8">
-        <v>675000</v>
+        <v>1003500</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1321,22 +1321,22 @@
         </is>
       </c>
       <c r="O8">
-        <v>0.028663</v>
+        <v>0.035792</v>
       </c>
       <c r="P8">
-        <v>-16619</v>
+        <v>-12648</v>
       </c>
       <c r="Q8">
-        <v>-3287</v>
+        <v>-2715</v>
       </c>
       <c r="R8">
-        <v>-1057</v>
+        <v>-777</v>
       </c>
       <c r="S8">
-        <v>-168</v>
+        <v>-2298</v>
       </c>
       <c r="T8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -1355,72 +1355,72 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Laborers</t>
+          <t>Drivers</t>
         </is>
       </c>
       <c r="AA8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB8">
         <v>2</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>MONDAY</t>
+          <t>SATURDAY</t>
         </is>
       </c>
       <c r="AD8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>Business Entity Type 2</t>
+          <t>Business Entity Type 3</t>
         </is>
       </c>
       <c r="AF8">
-        <v>0.1155</v>
+        <v>0.0371</v>
       </c>
       <c r="AG8">
-        <v>-644</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>103438</v>
+        <v>101993</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>135000</v>
+        <v>121500</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>1078200</v>
+        <v>675000</v>
       </c>
       <c r="H9">
-        <v>34911</v>
+        <v>21775.5</v>
       </c>
       <c r="I9">
-        <v>900000</v>
+        <v>675000</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Spouse, partner</t>
+          <t>Unaccompanied</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1440,23 +1440,23 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Municipal apartment</t>
+          <t>House / apartment</t>
         </is>
       </c>
       <c r="O9">
-        <v>0.020246</v>
+        <v>0.026392</v>
       </c>
       <c r="P9">
-        <v>-18448</v>
+        <v>-13467</v>
       </c>
       <c r="Q9">
-        <v>-2309</v>
+        <v>-1952</v>
       </c>
       <c r="R9">
-        <v>-11353</v>
+        <v>-2499</v>
       </c>
       <c r="S9">
-        <v>-2007</v>
+        <v>-4482</v>
       </c>
       <c r="T9">
         <v>3</v>
@@ -1465,49 +1465,49 @@
         <v>1</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>1</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Medicine staff</t>
+          <t>Laborers</t>
         </is>
       </c>
       <c r="AA9">
         <v>3</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>WEDNESDAY</t>
+          <t>THURSDAY</t>
         </is>
       </c>
       <c r="AD9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>Medicine</t>
+          <t>Housing</t>
         </is>
       </c>
       <c r="AF9">
-        <v>0.0897</v>
+        <v>0.0619</v>
       </c>
       <c r="AG9">
-        <v>-440</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>103452</v>
+        <v>101994</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>94500</v>
+        <v>180000</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>1546020</v>
+        <v>733315.5</v>
       </c>
       <c r="H10">
-        <v>45333</v>
+        <v>69754.5</v>
       </c>
       <c r="I10">
-        <v>1350000</v>
+        <v>679500</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1548,12 +1548,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Pensioner</t>
+          <t>Commercial associate</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Secondary / secondary special</t>
+          <t>Higher education</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1567,25 +1567,25 @@
         </is>
       </c>
       <c r="O10">
-        <v>0.020713</v>
+        <v>0.032561</v>
       </c>
       <c r="P10">
-        <v>-19821</v>
+        <v>-14447</v>
       </c>
       <c r="Q10">
-        <v>365243</v>
+        <v>-1103</v>
       </c>
       <c r="R10">
-        <v>-660</v>
+        <v>-2953</v>
       </c>
       <c r="S10">
-        <v>-3286</v>
+        <v>-4295</v>
       </c>
       <c r="T10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1598,31 +1598,36 @@
       </c>
       <c r="Y10">
         <v>0</v>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Accountants</t>
+        </is>
       </c>
       <c r="AA10">
         <v>4</v>
       </c>
       <c r="AB10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>FRIDAY</t>
+          <t>MONDAY</t>
         </is>
       </c>
       <c r="AD10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>XNA</t>
+          <t>Business Entity Type 3</t>
         </is>
       </c>
       <c r="AF10">
-        <v>0.09279999999999999</v>
+        <v>0.5866</v>
       </c>
       <c r="AG10">
-        <v>-174</v>
+        <v>-2307</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1633,31 +1638,31 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>103902</v>
+        <v>102037</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>135000</v>
+        <v>90000</v>
       </c>
       <c r="F11">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>900000</v>
+        <v>298728</v>
       </c>
       <c r="H11">
-        <v>46084.5</v>
+        <v>14499</v>
       </c>
       <c r="I11">
-        <v>900000</v>
+        <v>202500</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1666,7 +1671,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Pensioner</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1676,7 +1681,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Married</t>
+          <t>Civil marriage</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1685,25 +1690,25 @@
         </is>
       </c>
       <c r="O11">
-        <v>0.026392</v>
+        <v>0.008574999999999999</v>
       </c>
       <c r="P11">
-        <v>-10490</v>
+        <v>-14801</v>
       </c>
       <c r="Q11">
-        <v>-597</v>
+        <v>365243</v>
       </c>
       <c r="R11">
-        <v>-32</v>
+        <v>-4243</v>
       </c>
       <c r="S11">
-        <v>-3053</v>
+        <v>-4185</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1715,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>3</v>
@@ -1725,33 +1730,33 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>SATURDAY</t>
+          <t>THURSDAY</t>
         </is>
       </c>
       <c r="AD11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>XNA</t>
         </is>
       </c>
       <c r="AF11">
-        <v>0.134</v>
+        <v>0.1732</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI11">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>103990</v>
+        <v>102461</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1766,25 +1771,25 @@
         <v>157500</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>746280</v>
+        <v>592560</v>
       </c>
       <c r="H12">
-        <v>58963.5</v>
+        <v>31153.5</v>
       </c>
       <c r="I12">
-        <v>675000</v>
+        <v>450000</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Unaccompanied</t>
+          <t>Children</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Commercial associate</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1799,26 +1804,26 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>House / apartment</t>
+          <t>Municipal apartment</t>
         </is>
       </c>
       <c r="O12">
-        <v>0.025164</v>
+        <v>0.003540999999999999</v>
       </c>
       <c r="P12">
-        <v>-14790</v>
+        <v>-15725</v>
       </c>
       <c r="Q12">
-        <v>-1249</v>
+        <v>-595</v>
       </c>
       <c r="R12">
-        <v>-1669</v>
+        <v>-5348</v>
       </c>
       <c r="S12">
-        <v>-2306</v>
+        <v>-2749</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -1837,36 +1842,36 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Sales staff</t>
+          <t>Cooking staff</t>
         </is>
       </c>
       <c r="AA12">
         <v>3</v>
       </c>
       <c r="AB12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>FRIDAY</t>
+          <t>TUESDAY</t>
         </is>
       </c>
       <c r="AD12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>Business Entity Type 2</t>
+          <t>Business Entity Type 3</t>
         </is>
       </c>
       <c r="AF12">
-        <v>0.07630000000000001</v>
+        <v>0.0371</v>
       </c>
       <c r="AG12">
-        <v>-308</v>
+        <v>-2446</v>
       </c>
       <c r="AH12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -1874,40 +1879,45 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>104754</v>
+        <v>102679</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>112500</v>
+        <v>180000</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>373311</v>
+        <v>364896</v>
       </c>
       <c r="H13">
-        <v>13963.5</v>
+        <v>19926</v>
       </c>
       <c r="I13">
-        <v>283500</v>
+        <v>315000</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Commercial associate</t>
+          <t>State servant</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t>Secondary / secondary special</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1921,22 +1931,22 @@
         </is>
       </c>
       <c r="O13">
-        <v>0.016612</v>
+        <v>0.009334</v>
       </c>
       <c r="P13">
-        <v>-12918</v>
+        <v>-10039</v>
       </c>
       <c r="Q13">
-        <v>-3010</v>
+        <v>-822</v>
       </c>
       <c r="R13">
-        <v>-7035</v>
+        <v>-281</v>
       </c>
       <c r="S13">
-        <v>-4683</v>
+        <v>-2388</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -1955,36 +1965,36 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Laborers</t>
+          <t>Core staff</t>
         </is>
       </c>
       <c r="AA13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB13">
         <v>2</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>WEDNESDAY</t>
+          <t>SATURDAY</t>
         </is>
       </c>
       <c r="AD13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>Government</t>
+          <t>Police</t>
         </is>
       </c>
       <c r="AF13">
-        <v>0.1454</v>
+        <v>0.1227</v>
       </c>
       <c r="AG13">
-        <v>-2</v>
+        <v>-1723</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -1992,31 +2002,31 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>104852</v>
+        <v>103412</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>180000</v>
+        <v>135000</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>429763.5</v>
+        <v>675000</v>
       </c>
       <c r="H14">
-        <v>33952.5</v>
+        <v>26284.5</v>
       </c>
       <c r="I14">
-        <v>351000</v>
+        <v>675000</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -2025,7 +2035,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Commercial associate</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2044,22 +2054,22 @@
         </is>
       </c>
       <c r="O14">
-        <v>0.02461</v>
+        <v>0.028663</v>
       </c>
       <c r="P14">
-        <v>-16195</v>
+        <v>-16619</v>
       </c>
       <c r="Q14">
-        <v>-1803</v>
+        <v>-3287</v>
       </c>
       <c r="R14">
-        <v>-8706</v>
+        <v>-1057</v>
       </c>
       <c r="S14">
-        <v>-4382</v>
+        <v>-168</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -2074,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -2082,43 +2092,43 @@
         </is>
       </c>
       <c r="AA14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB14">
         <v>2</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>WEDNESDAY</t>
+          <t>MONDAY</t>
         </is>
       </c>
       <c r="AD14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Business Entity Type 2</t>
         </is>
       </c>
       <c r="AF14">
-        <v>0.0825</v>
+        <v>0.1155</v>
       </c>
       <c r="AG14">
-        <v>-1510</v>
+        <v>-644</v>
       </c>
       <c r="AH14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>105090</v>
+        <v>103438</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2127,23 +2137,23 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>90000</v>
+        <v>135000</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>630000</v>
+        <v>1078200</v>
       </c>
       <c r="H15">
-        <v>23274</v>
+        <v>34911</v>
       </c>
       <c r="I15">
-        <v>630000</v>
+        <v>900000</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Unaccompanied</t>
+          <t>Spouse, partner</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2163,26 +2173,26 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>House / apartment</t>
+          <t>Municipal apartment</t>
         </is>
       </c>
       <c r="O15">
-        <v>0.015221</v>
+        <v>0.020246</v>
       </c>
       <c r="P15">
-        <v>-13981</v>
+        <v>-18448</v>
       </c>
       <c r="Q15">
-        <v>-1018</v>
+        <v>-2309</v>
       </c>
       <c r="R15">
-        <v>-1196</v>
+        <v>-11353</v>
       </c>
       <c r="S15">
-        <v>-4559</v>
+        <v>-2007</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -2201,68 +2211,68 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Sales staff</t>
+          <t>Medicine staff</t>
         </is>
       </c>
       <c r="AA15">
         <v>3</v>
       </c>
       <c r="AB15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>FRIDAY</t>
+          <t>WEDNESDAY</t>
         </is>
       </c>
       <c r="AD15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Medicine</t>
         </is>
       </c>
       <c r="AF15">
-        <v>0.1649</v>
+        <v>0.0897</v>
       </c>
       <c r="AG15">
-        <v>-370</v>
+        <v>-440</v>
       </c>
       <c r="AH15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>105640</v>
+        <v>103452</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>117000</v>
+        <v>94500</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G16">
-        <v>409500</v>
+        <v>1546020</v>
       </c>
       <c r="H16">
-        <v>26793</v>
+        <v>45333</v>
       </c>
       <c r="I16">
-        <v>409500</v>
+        <v>1350000</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -2271,12 +2281,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Pensioner</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t>Secondary / secondary special</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2290,25 +2300,25 @@
         </is>
       </c>
       <c r="O16">
-        <v>0.026392</v>
+        <v>0.020713</v>
       </c>
       <c r="P16">
-        <v>-10572</v>
+        <v>-19821</v>
       </c>
       <c r="Q16">
-        <v>-671</v>
+        <v>365243</v>
       </c>
       <c r="R16">
-        <v>-4644</v>
+        <v>-660</v>
       </c>
       <c r="S16">
-        <v>-380</v>
+        <v>-3286</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2322,46 +2332,41 @@
       <c r="Y16">
         <v>0</v>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>Core staff</t>
-        </is>
-      </c>
       <c r="AA16">
+        <v>4</v>
+      </c>
+      <c r="AB16">
         <v>3</v>
       </c>
-      <c r="AB16">
-        <v>2</v>
-      </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>SUNDAY</t>
+          <t>FRIDAY</t>
         </is>
       </c>
       <c r="AD16">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>Bank</t>
+          <t>XNA</t>
         </is>
       </c>
       <c r="AF16">
-        <v>0.0649</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="AG16">
-        <v>-195</v>
+        <v>-174</v>
       </c>
       <c r="AH16">
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>106409</v>
+        <v>103902</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2376,13 +2381,13 @@
         <v>135000</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>900000</v>
       </c>
       <c r="H17">
-        <v>38133</v>
+        <v>46084.5</v>
       </c>
       <c r="I17">
         <v>900000</v>
@@ -2399,7 +2404,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t>Secondary / secondary special</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2413,22 +2418,22 @@
         </is>
       </c>
       <c r="O17">
-        <v>0.020246</v>
+        <v>0.026392</v>
       </c>
       <c r="P17">
-        <v>-15964</v>
+        <v>-10490</v>
       </c>
       <c r="Q17">
-        <v>-1299</v>
+        <v>-597</v>
       </c>
       <c r="R17">
-        <v>-5377</v>
+        <v>-32</v>
       </c>
       <c r="S17">
-        <v>-5894</v>
+        <v>-3053</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -2440,124 +2445,119 @@
         <v>1</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>1</v>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>Core staff</t>
-        </is>
       </c>
       <c r="AA17">
         <v>3</v>
       </c>
       <c r="AB17">
+        <v>2</v>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>SATURDAY</t>
+        </is>
+      </c>
+      <c r="AD17">
+        <v>12</v>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AF17">
+        <v>0.134</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
         <v>3</v>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>WEDNESDAY</t>
-        </is>
-      </c>
-      <c r="AD17">
-        <v>14</v>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>Industry: type 9</t>
-        </is>
-      </c>
-      <c r="AF17">
-        <v>0.0619</v>
-      </c>
-      <c r="AG17">
-        <v>-698</v>
-      </c>
-      <c r="AH17">
-        <v>7</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>106769</v>
+        <v>103964</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>121500</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>254700</v>
+      </c>
+      <c r="H18">
+        <v>24939</v>
+      </c>
+      <c r="I18">
+        <v>225000</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O18">
+        <v>0.020713</v>
+      </c>
+      <c r="P18">
+        <v>-14636</v>
+      </c>
+      <c r="Q18">
+        <v>-182</v>
+      </c>
+      <c r="R18">
+        <v>-8551</v>
+      </c>
+      <c r="S18">
+        <v>-5125</v>
+      </c>
+      <c r="T18">
         <v>2</v>
       </c>
-      <c r="E18">
-        <v>135000</v>
-      </c>
-      <c r="F18">
-        <v>20</v>
-      </c>
-      <c r="G18">
-        <v>1006920</v>
-      </c>
-      <c r="H18">
-        <v>51412.5</v>
-      </c>
-      <c r="I18">
-        <v>900000</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Unaccompanied</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Secondary / secondary special</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Married</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>House / apartment</t>
-        </is>
-      </c>
-      <c r="O18">
-        <v>0.011703</v>
-      </c>
-      <c r="P18">
-        <v>-13840</v>
-      </c>
-      <c r="Q18">
-        <v>-6784</v>
-      </c>
-      <c r="R18">
-        <v>-1486</v>
-      </c>
-      <c r="S18">
-        <v>-1387</v>
-      </c>
-      <c r="T18">
-        <v>4</v>
-      </c>
       <c r="U18">
         <v>1</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>1</v>
@@ -2568,38 +2568,33 @@
       <c r="Y18">
         <v>0</v>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>High skill tech staff</t>
-        </is>
-      </c>
       <c r="AA18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>WEDNESDAY</t>
+          <t>SATURDAY</t>
         </is>
       </c>
       <c r="AD18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>Industry: type 7</t>
+          <t>Industry: type 1</t>
         </is>
       </c>
       <c r="AF18">
-        <v>0.1031</v>
+        <v>0.2515</v>
       </c>
       <c r="AG18">
-        <v>-1221</v>
+        <v>-1</v>
       </c>
       <c r="AH18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -2607,7 +2602,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>108107</v>
+        <v>103990</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2619,33 +2614,33 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>180000</v>
+        <v>157500</v>
       </c>
       <c r="F19">
         <v>10</v>
       </c>
       <c r="G19">
-        <v>630000</v>
+        <v>746280</v>
       </c>
       <c r="H19">
-        <v>38542.5</v>
+        <v>58963.5</v>
       </c>
       <c r="I19">
-        <v>630000</v>
+        <v>675000</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Unaccompanied</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Commercial associate</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t>Secondary / secondary special</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2662,16 +2657,16 @@
         <v>0.025164</v>
       </c>
       <c r="P19">
-        <v>-17371</v>
+        <v>-14790</v>
       </c>
       <c r="Q19">
-        <v>-1846</v>
+        <v>-1249</v>
       </c>
       <c r="R19">
-        <v>-2136</v>
+        <v>-1669</v>
       </c>
       <c r="S19">
-        <v>-903</v>
+        <v>-2306</v>
       </c>
       <c r="T19">
         <v>2</v>
@@ -2704,27 +2699,1247 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
+          <t>FRIDAY</t>
+        </is>
+      </c>
+      <c r="AD19">
+        <v>8</v>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>Business Entity Type 2</t>
+        </is>
+      </c>
+      <c r="AF19">
+        <v>0.07630000000000001</v>
+      </c>
+      <c r="AG19">
+        <v>-308</v>
+      </c>
+      <c r="AH19">
+        <v>2</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>104754</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>112500</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>373311</v>
+      </c>
+      <c r="H20">
+        <v>13963.5</v>
+      </c>
+      <c r="I20">
+        <v>283500</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Commercial associate</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O20">
+        <v>0.016612</v>
+      </c>
+      <c r="P20">
+        <v>-12918</v>
+      </c>
+      <c r="Q20">
+        <v>-3010</v>
+      </c>
+      <c r="R20">
+        <v>-7035</v>
+      </c>
+      <c r="S20">
+        <v>-4683</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
+      </c>
+      <c r="AA20">
+        <v>4</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AD19">
+      <c r="AD20">
         <v>11</v>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>Government</t>
+        </is>
+      </c>
+      <c r="AF20">
+        <v>0.1454</v>
+      </c>
+      <c r="AG20">
+        <v>-2</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>104852</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>180000</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>429763.5</v>
+      </c>
+      <c r="H21">
+        <v>33952.5</v>
+      </c>
+      <c r="I21">
+        <v>351000</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Commercial associate</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O21">
+        <v>0.02461</v>
+      </c>
+      <c r="P21">
+        <v>-16195</v>
+      </c>
+      <c r="Q21">
+        <v>-1803</v>
+      </c>
+      <c r="R21">
+        <v>-8706</v>
+      </c>
+      <c r="S21">
+        <v>-4382</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
+      </c>
+      <c r="AA21">
+        <v>3</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD21">
+        <v>13</v>
+      </c>
+      <c r="AE21" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AF19">
+      <c r="AF21">
+        <v>0.0825</v>
+      </c>
+      <c r="AG21">
+        <v>-1510</v>
+      </c>
+      <c r="AH21">
+        <v>9</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>105090</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>90000</v>
+      </c>
+      <c r="F22">
+        <v>40</v>
+      </c>
+      <c r="G22">
+        <v>630000</v>
+      </c>
+      <c r="H22">
+        <v>23274</v>
+      </c>
+      <c r="I22">
+        <v>630000</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O22">
+        <v>0.015221</v>
+      </c>
+      <c r="P22">
+        <v>-13981</v>
+      </c>
+      <c r="Q22">
+        <v>-1018</v>
+      </c>
+      <c r="R22">
+        <v>-1196</v>
+      </c>
+      <c r="S22">
+        <v>-4559</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Sales staff</t>
+        </is>
+      </c>
+      <c r="AA22">
+        <v>3</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>FRIDAY</t>
+        </is>
+      </c>
+      <c r="AD22">
+        <v>10</v>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="AF22">
+        <v>0.1649</v>
+      </c>
+      <c r="AG22">
+        <v>-370</v>
+      </c>
+      <c r="AH22">
+        <v>2</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>105419</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>180000</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>545040</v>
+      </c>
+      <c r="H23">
+        <v>43191</v>
+      </c>
+      <c r="I23">
+        <v>450000</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O23">
+        <v>0.019689</v>
+      </c>
+      <c r="P23">
+        <v>-19038</v>
+      </c>
+      <c r="Q23">
+        <v>-5275</v>
+      </c>
+      <c r="R23">
+        <v>-748</v>
+      </c>
+      <c r="S23">
+        <v>-1796</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Sales staff</t>
+        </is>
+      </c>
+      <c r="AA23">
+        <v>3</v>
+      </c>
+      <c r="AB23">
+        <v>2</v>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>TUESDAY</t>
+        </is>
+      </c>
+      <c r="AD23">
+        <v>9</v>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="AF23">
+        <v>0.0804</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>105640</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>117000</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>409500</v>
+      </c>
+      <c r="H24">
+        <v>26793</v>
+      </c>
+      <c r="I24">
+        <v>409500</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O24">
+        <v>0.026392</v>
+      </c>
+      <c r="P24">
+        <v>-10572</v>
+      </c>
+      <c r="Q24">
+        <v>-671</v>
+      </c>
+      <c r="R24">
+        <v>-4644</v>
+      </c>
+      <c r="S24">
+        <v>-380</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Core staff</t>
+        </is>
+      </c>
+      <c r="AA24">
+        <v>3</v>
+      </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>SUNDAY</t>
+        </is>
+      </c>
+      <c r="AD24">
+        <v>14</v>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="AF24">
+        <v>0.0649</v>
+      </c>
+      <c r="AG24">
+        <v>-195</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>106188</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>180000</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>490495.5</v>
+      </c>
+      <c r="H25">
+        <v>27517.5</v>
+      </c>
+      <c r="I25">
+        <v>454500</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O25">
+        <v>0.031329</v>
+      </c>
+      <c r="P25">
+        <v>-14597</v>
+      </c>
+      <c r="Q25">
+        <v>-1209</v>
+      </c>
+      <c r="R25">
+        <v>-3216</v>
+      </c>
+      <c r="S25">
+        <v>-1768</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>3</v>
+      </c>
+      <c r="AB25">
+        <v>2</v>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>SATURDAY</t>
+        </is>
+      </c>
+      <c r="AD25">
+        <v>15</v>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AF25">
+        <v>0.1464</v>
+      </c>
+      <c r="AG25">
+        <v>-1701</v>
+      </c>
+      <c r="AH25">
+        <v>5</v>
+      </c>
+      <c r="AI25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>106409</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>135000</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>900000</v>
+      </c>
+      <c r="H26">
+        <v>38133</v>
+      </c>
+      <c r="I26">
+        <v>900000</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O26">
+        <v>0.020246</v>
+      </c>
+      <c r="P26">
+        <v>-15964</v>
+      </c>
+      <c r="Q26">
+        <v>-1299</v>
+      </c>
+      <c r="R26">
+        <v>-5377</v>
+      </c>
+      <c r="S26">
+        <v>-5894</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Core staff</t>
+        </is>
+      </c>
+      <c r="AA26">
+        <v>3</v>
+      </c>
+      <c r="AB26">
+        <v>3</v>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD26">
+        <v>14</v>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>Industry: type 9</t>
+        </is>
+      </c>
+      <c r="AF26">
+        <v>0.0619</v>
+      </c>
+      <c r="AG26">
+        <v>-698</v>
+      </c>
+      <c r="AH26">
+        <v>7</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>106769</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>135000</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>1006920</v>
+      </c>
+      <c r="H27">
+        <v>51412.5</v>
+      </c>
+      <c r="I27">
+        <v>900000</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O27">
+        <v>0.011703</v>
+      </c>
+      <c r="P27">
+        <v>-13840</v>
+      </c>
+      <c r="Q27">
+        <v>-6784</v>
+      </c>
+      <c r="R27">
+        <v>-1486</v>
+      </c>
+      <c r="S27">
+        <v>-1387</v>
+      </c>
+      <c r="T27">
+        <v>4</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>High skill tech staff</t>
+        </is>
+      </c>
+      <c r="AA27">
+        <v>4</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD27">
+        <v>9</v>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>Industry: type 7</t>
+        </is>
+      </c>
+      <c r="AF27">
+        <v>0.1031</v>
+      </c>
+      <c r="AG27">
+        <v>-1221</v>
+      </c>
+      <c r="AH27">
+        <v>3</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>107809</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>112500</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>251091</v>
+      </c>
+      <c r="H28">
+        <v>24961.5</v>
+      </c>
+      <c r="I28">
+        <v>238500</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Municipal apartment</t>
+        </is>
+      </c>
+      <c r="O28">
+        <v>0.003813</v>
+      </c>
+      <c r="P28">
+        <v>-12849</v>
+      </c>
+      <c r="Q28">
+        <v>-111</v>
+      </c>
+      <c r="R28">
+        <v>-6742</v>
+      </c>
+      <c r="S28">
+        <v>-3724</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>High skill tech staff</t>
+        </is>
+      </c>
+      <c r="AA28">
+        <v>3</v>
+      </c>
+      <c r="AB28">
+        <v>2</v>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>THURSDAY</t>
+        </is>
+      </c>
+      <c r="AD28">
+        <v>7</v>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AF28">
+        <v>0.0144</v>
+      </c>
+      <c r="AG28">
+        <v>-811</v>
+      </c>
+      <c r="AH28">
+        <v>1</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>108107</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>180000</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>630000</v>
+      </c>
+      <c r="H29">
+        <v>38542.5</v>
+      </c>
+      <c r="I29">
+        <v>630000</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Commercial associate</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O29">
+        <v>0.025164</v>
+      </c>
+      <c r="P29">
+        <v>-17371</v>
+      </c>
+      <c r="Q29">
+        <v>-1846</v>
+      </c>
+      <c r="R29">
+        <v>-2136</v>
+      </c>
+      <c r="S29">
+        <v>-903</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Sales staff</t>
+        </is>
+      </c>
+      <c r="AA29">
+        <v>3</v>
+      </c>
+      <c r="AB29">
+        <v>2</v>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD29">
+        <v>11</v>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="AF29">
         <v>0.0856</v>
       </c>
-      <c r="AG19">
+      <c r="AG29">
         <v>-726</v>
       </c>
-      <c r="AH19">
+      <c r="AH29">
         <v>7</v>
       </c>
-      <c r="AI19">
+      <c r="AI29">
         <v>1</v>
       </c>
     </row>

--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados5.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados5.xlsx
@@ -591,10 +591,10 @@
         <v>0.028663</v>
       </c>
       <c r="P2">
-        <v>-13116</v>
+        <v>35</v>
       </c>
       <c r="Q2">
-        <v>-1786</v>
+        <v>4</v>
       </c>
       <c r="R2">
         <v>-7237</v>
@@ -714,10 +714,10 @@
         <v>0.030755</v>
       </c>
       <c r="P3">
-        <v>-15150</v>
+        <v>41</v>
       </c>
       <c r="Q3">
-        <v>-392</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>-70</v>
@@ -837,10 +837,10 @@
         <v>0.031329</v>
       </c>
       <c r="P4">
-        <v>-13879</v>
+        <v>38</v>
       </c>
       <c r="Q4">
-        <v>-2930</v>
+        <v>8</v>
       </c>
       <c r="R4">
         <v>-3439</v>
@@ -960,10 +960,10 @@
         <v>0.04622</v>
       </c>
       <c r="P5">
-        <v>-16290</v>
+        <v>44</v>
       </c>
       <c r="Q5">
-        <v>-4752</v>
+        <v>13</v>
       </c>
       <c r="R5">
         <v>-8870</v>
@@ -1083,10 +1083,10 @@
         <v>0.010147</v>
       </c>
       <c r="P6">
-        <v>-10867</v>
+        <v>29</v>
       </c>
       <c r="Q6">
-        <v>-1344</v>
+        <v>3</v>
       </c>
       <c r="R6">
         <v>-3517</v>
@@ -1206,10 +1206,10 @@
         <v>0.025164</v>
       </c>
       <c r="P7">
-        <v>-13802</v>
+        <v>37</v>
       </c>
       <c r="Q7">
-        <v>-4963</v>
+        <v>13</v>
       </c>
       <c r="R7">
         <v>-5328</v>
@@ -1324,10 +1324,10 @@
         <v>0.035792</v>
       </c>
       <c r="P8">
-        <v>-12648</v>
+        <v>34</v>
       </c>
       <c r="Q8">
-        <v>-2715</v>
+        <v>7</v>
       </c>
       <c r="R8">
         <v>-777</v>
@@ -1447,10 +1447,10 @@
         <v>0.026392</v>
       </c>
       <c r="P9">
-        <v>-13467</v>
+        <v>36</v>
       </c>
       <c r="Q9">
-        <v>-1952</v>
+        <v>5</v>
       </c>
       <c r="R9">
         <v>-2499</v>
@@ -1570,10 +1570,10 @@
         <v>0.032561</v>
       </c>
       <c r="P10">
-        <v>-14447</v>
+        <v>39</v>
       </c>
       <c r="Q10">
-        <v>-1103</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>-2953</v>
@@ -1693,10 +1693,10 @@
         <v>0.008574999999999999</v>
       </c>
       <c r="P11">
-        <v>-14801</v>
+        <v>40</v>
       </c>
       <c r="Q11">
-        <v>365243</v>
+        <v>18</v>
       </c>
       <c r="R11">
         <v>-4243</v>
@@ -1811,10 +1811,10 @@
         <v>0.003540999999999999</v>
       </c>
       <c r="P12">
-        <v>-15725</v>
+        <v>43</v>
       </c>
       <c r="Q12">
-        <v>-595</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <v>-5348</v>
@@ -1934,10 +1934,10 @@
         <v>0.009334</v>
       </c>
       <c r="P13">
-        <v>-10039</v>
+        <v>27</v>
       </c>
       <c r="Q13">
-        <v>-822</v>
+        <v>2</v>
       </c>
       <c r="R13">
         <v>-281</v>
@@ -2057,10 +2057,10 @@
         <v>0.028663</v>
       </c>
       <c r="P14">
-        <v>-16619</v>
+        <v>45</v>
       </c>
       <c r="Q14">
-        <v>-3287</v>
+        <v>9</v>
       </c>
       <c r="R14">
         <v>-1057</v>
@@ -2180,10 +2180,10 @@
         <v>0.020246</v>
       </c>
       <c r="P15">
-        <v>-18448</v>
+        <v>50</v>
       </c>
       <c r="Q15">
-        <v>-2309</v>
+        <v>6</v>
       </c>
       <c r="R15">
         <v>-11353</v>
@@ -2303,10 +2303,10 @@
         <v>0.020713</v>
       </c>
       <c r="P16">
-        <v>-19821</v>
+        <v>54</v>
       </c>
       <c r="Q16">
-        <v>365243</v>
+        <v>12</v>
       </c>
       <c r="R16">
         <v>-660</v>
@@ -2421,10 +2421,10 @@
         <v>0.026392</v>
       </c>
       <c r="P17">
-        <v>-10490</v>
+        <v>28</v>
       </c>
       <c r="Q17">
-        <v>-597</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>-32</v>
@@ -2539,10 +2539,10 @@
         <v>0.020713</v>
       </c>
       <c r="P18">
-        <v>-14636</v>
+        <v>40</v>
       </c>
       <c r="Q18">
-        <v>-182</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>-8551</v>
@@ -2657,10 +2657,10 @@
         <v>0.025164</v>
       </c>
       <c r="P19">
-        <v>-14790</v>
+        <v>40</v>
       </c>
       <c r="Q19">
-        <v>-1249</v>
+        <v>3</v>
       </c>
       <c r="R19">
         <v>-1669</v>
@@ -2775,10 +2775,10 @@
         <v>0.016612</v>
       </c>
       <c r="P20">
-        <v>-12918</v>
+        <v>35</v>
       </c>
       <c r="Q20">
-        <v>-3010</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <v>-7035</v>
@@ -2898,10 +2898,10 @@
         <v>0.02461</v>
       </c>
       <c r="P21">
-        <v>-16195</v>
+        <v>44</v>
       </c>
       <c r="Q21">
-        <v>-1803</v>
+        <v>4</v>
       </c>
       <c r="R21">
         <v>-8706</v>
@@ -3021,10 +3021,10 @@
         <v>0.015221</v>
       </c>
       <c r="P22">
-        <v>-13981</v>
+        <v>38</v>
       </c>
       <c r="Q22">
-        <v>-1018</v>
+        <v>2</v>
       </c>
       <c r="R22">
         <v>-1196</v>
@@ -3144,10 +3144,10 @@
         <v>0.019689</v>
       </c>
       <c r="P23">
-        <v>-19038</v>
+        <v>52</v>
       </c>
       <c r="Q23">
-        <v>-5275</v>
+        <v>14</v>
       </c>
       <c r="R23">
         <v>-748</v>
@@ -3267,10 +3267,10 @@
         <v>0.026392</v>
       </c>
       <c r="P24">
-        <v>-10572</v>
+        <v>28</v>
       </c>
       <c r="Q24">
-        <v>-671</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>-4644</v>
@@ -3390,10 +3390,10 @@
         <v>0.031329</v>
       </c>
       <c r="P25">
-        <v>-14597</v>
+        <v>39</v>
       </c>
       <c r="Q25">
-        <v>-1209</v>
+        <v>3</v>
       </c>
       <c r="R25">
         <v>-3216</v>
@@ -3508,10 +3508,10 @@
         <v>0.020246</v>
       </c>
       <c r="P26">
-        <v>-15964</v>
+        <v>43</v>
       </c>
       <c r="Q26">
-        <v>-1299</v>
+        <v>3</v>
       </c>
       <c r="R26">
         <v>-5377</v>
@@ -3631,10 +3631,10 @@
         <v>0.011703</v>
       </c>
       <c r="P27">
-        <v>-13840</v>
+        <v>37</v>
       </c>
       <c r="Q27">
-        <v>-6784</v>
+        <v>18</v>
       </c>
       <c r="R27">
         <v>-1486</v>
@@ -3754,10 +3754,10 @@
         <v>0.003813</v>
       </c>
       <c r="P28">
-        <v>-12849</v>
+        <v>35</v>
       </c>
       <c r="Q28">
-        <v>-111</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <v>-6742</v>
@@ -3877,10 +3877,10 @@
         <v>0.025164</v>
       </c>
       <c r="P29">
-        <v>-17371</v>
+        <v>47</v>
       </c>
       <c r="Q29">
-        <v>-1846</v>
+        <v>5</v>
       </c>
       <c r="R29">
         <v>-2136</v>
